--- a/Outputs/ExperimentOutput.xlsx
+++ b/Outputs/ExperimentOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1a534b4336b0e73/ASU Documents/ASU Year Five/Advanced Computer Networks/Project/Source/ACNFabricProject/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104827515E72FE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDA4345-E408-4764-9510-14919A17AC6F}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104827515E72FE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A241E53-56BE-4346-8743-BA81E6B27429}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3525" yWindow="3525" windowWidth="21585" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Node</t>
   </si>
@@ -42,7 +42,10 @@
     <t>RTT</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>Avg FR</t>
+  </si>
+  <si>
+    <t>Avg BW</t>
   </si>
 </sst>
 </file>
@@ -364,15 +367,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,62 +394,284 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1080</v>
       </c>
+      <c r="C2">
+        <v>8.33</v>
+      </c>
+      <c r="D2">
+        <v>0.32</v>
+      </c>
       <c r="F2">
-        <v>27.258359550561799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="G2">
+        <v>109.83050847457601</v>
+      </c>
+      <c r="H2">
+        <v>468.317288135593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>1080</v>
+      </c>
+      <c r="C3">
+        <v>16.66</v>
+      </c>
+      <c r="D3">
+        <v>0.64</v>
+      </c>
+      <c r="F3">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="G3">
+        <v>57.745762711864401</v>
+      </c>
+      <c r="H3">
+        <v>246.227932203389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>720</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1080</v>
+      <c r="C4">
+        <v>8.33</v>
+      </c>
+      <c r="D4">
+        <v>0.32</v>
       </c>
       <c r="F4">
-        <v>79.674639999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68.371228915662599</v>
+      </c>
+      <c r="G4">
+        <v>110.186440677966</v>
+      </c>
+      <c r="H4">
+        <v>469.83498305084697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>720</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>16.66</v>
+      </c>
+      <c r="D5">
+        <v>0.64</v>
+      </c>
+      <c r="F5">
+        <v>91.800146341463403</v>
+      </c>
+      <c r="G5">
+        <v>57.711864406779597</v>
+      </c>
+      <c r="H5">
+        <v>246.083389830508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1080</v>
       </c>
+      <c r="C6">
+        <v>8.33</v>
+      </c>
+      <c r="D6">
+        <v>0.32</v>
+      </c>
       <c r="F6">
-        <v>113.108928571428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>120.027583333333</v>
+      </c>
+      <c r="G6">
+        <v>28.932203389830502</v>
+      </c>
+      <c r="H6">
+        <v>123.366915254237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1080</v>
+      </c>
+      <c r="C7">
+        <v>16.66</v>
+      </c>
+      <c r="D7">
+        <v>0.64</v>
+      </c>
+      <c r="F7">
+        <v>127.963130434782</v>
+      </c>
+      <c r="G7">
+        <v>28.677966101694899</v>
+      </c>
+      <c r="H7">
+        <v>122.282847457627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>720</v>
+      </c>
+      <c r="C8">
+        <v>8.33</v>
+      </c>
+      <c r="D8">
+        <v>0.32</v>
+      </c>
+      <c r="F8">
+        <v>119.45613636363601</v>
+      </c>
+      <c r="G8">
+        <v>28.864406779661</v>
+      </c>
+      <c r="H8">
+        <v>123.07783050847399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>720</v>
+      </c>
+      <c r="C9">
+        <v>16.66</v>
+      </c>
+      <c r="D9">
+        <v>0.64</v>
+      </c>
+      <c r="F9">
+        <v>126.154368421052</v>
+      </c>
+      <c r="G9">
+        <v>28.745762711864401</v>
+      </c>
+      <c r="H9">
+        <v>122.571932203389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B10">
+        <v>1080</v>
+      </c>
+      <c r="C10">
+        <v>8.33</v>
+      </c>
+      <c r="D10">
+        <v>0.32</v>
+      </c>
+      <c r="F10">
+        <v>149.988888888888</v>
+      </c>
+      <c r="G10">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H10">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1080</v>
+      </c>
+      <c r="C11">
+        <v>16.66</v>
+      </c>
+      <c r="D11">
+        <v>0.64</v>
+      </c>
+      <c r="F11">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="G11">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H11">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>720</v>
+      </c>
+      <c r="C12">
+        <v>8.33</v>
+      </c>
+      <c r="D12">
+        <v>0.32</v>
+      </c>
+      <c r="F12">
+        <v>152.130764705882</v>
+      </c>
+      <c r="G12">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H12">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>720</v>
+      </c>
+      <c r="C13">
+        <v>16.66</v>
+      </c>
+      <c r="D13">
+        <v>0.64</v>
+      </c>
+      <c r="F13">
+        <v>155.1001</v>
+      </c>
+      <c r="G13">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H13">
+        <v>85.206482758620595</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/ExperimentOutput.xlsx
+++ b/Outputs/ExperimentOutput.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1a534b4336b0e73/ASU Documents/ASU Year Five/Advanced Computer Networks/Project/Source/ACNFabricProject/Outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104827515E72FE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A241E53-56BE-4346-8743-BA81E6B27429}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="11_F25DC773A252ABDACC104827515E72FE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E34D4DD-C8EE-438D-804E-6498D0A0622B}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>Node</t>
   </si>
@@ -46,14 +58,114 @@
   </si>
   <si>
     <t>Avg BW</t>
+  </si>
+  <si>
+    <t>Node/Resolution</t>
+  </si>
+  <si>
+    <t>Node1</t>
+  </si>
+  <si>
+    <t>Node2</t>
+  </si>
+  <si>
+    <t>Node3</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>BW</t>
+  </si>
+  <si>
+    <t>Node/GPU mean</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>Res/GPU</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -77,12 +189,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,16 +515,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1AC01FA-E5C7-4C54-AF6C-04AE4AA489C3}">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>120.027583333333</v>
+      </c>
+      <c r="D6" s="1">
+        <v>149.988888888888</v>
+      </c>
+      <c r="E6" s="1">
+        <v>337.78694722222099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="C7" s="1">
+        <v>120.027583333333</v>
+      </c>
+      <c r="D7" s="1">
+        <v>149.988888888888</v>
+      </c>
+      <c r="E7" s="1">
+        <v>112.59564907407366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C8" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1731.3921307265882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>1080</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="C12" s="1">
+        <v>127.963130434782</v>
+      </c>
+      <c r="D12" s="1">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="E12" s="1">
+        <v>382.91592437417557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="C13" s="1">
+        <v>127.963130434782</v>
+      </c>
+      <c r="D13" s="1">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="E13" s="1">
+        <v>127.63864145805853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C14" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1173.4381143311039</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>720</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>68.371228915662599</v>
+      </c>
+      <c r="C18" s="1">
+        <v>119.45613636363601</v>
+      </c>
+      <c r="D18" s="1">
+        <v>152.130764705882</v>
+      </c>
+      <c r="E18" s="1">
+        <v>339.95812998518056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>68.371228915662599</v>
+      </c>
+      <c r="C19" s="1">
+        <v>119.45613636363601</v>
+      </c>
+      <c r="D19" s="1">
+        <v>152.130764705882</v>
+      </c>
+      <c r="E19" s="1">
+        <v>113.31937666172685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1782.1598236774989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>720</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>91.800146341463403</v>
+      </c>
+      <c r="C24" s="1">
+        <v>126.154368421052</v>
+      </c>
+      <c r="D24" s="1">
+        <v>155.1001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>373.05461476251537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1">
+        <v>91.800146341463403</v>
+      </c>
+      <c r="C25" s="1">
+        <v>126.154368421052</v>
+      </c>
+      <c r="D25" s="1">
+        <v>155.1001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>124.35153825417179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1004.1586807511812</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>321.16391692379261</v>
+      </c>
+      <c r="C30" s="1">
+        <v>493.60121855280306</v>
+      </c>
+      <c r="D30" s="1">
+        <v>618.95048086749705</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1">
+        <v>80.290979230948153</v>
+      </c>
+      <c r="C31" s="1">
+        <v>123.40030463820077</v>
+      </c>
+      <c r="D31" s="1">
+        <v>154.73762021687426</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="1">
+        <v>199.50580787463454</v>
+      </c>
+      <c r="C32" s="1">
+        <v>18.44531964945071</v>
+      </c>
+      <c r="D32" s="1">
+        <v>26.127027589460354</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1">
+        <v>526.92848481208966</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1">
+        <v>175.64282827069655</v>
+      </c>
+      <c r="E37" s="1">
+        <v>65535</v>
+      </c>
+      <c r="F37" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G37" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11176.991518444182</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5588.4957592220908</v>
+      </c>
+      <c r="E38" s="1">
+        <v>65535</v>
+      </c>
+      <c r="F38" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G38" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>205.30598052854657</v>
+      </c>
+      <c r="C39" s="1">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1">
+        <v>34.217663421424426</v>
+      </c>
+      <c r="E39" s="1">
+        <v>65535</v>
+      </c>
+      <c r="F39" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G39" s="1" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>65535</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3">
+        <v>11909.225983784818</v>
+      </c>
+      <c r="C42" s="3">
+        <v>11</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +1140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,7 +1163,7 @@
         <v>468.317288135593</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -444,7 +1186,7 @@
         <v>246.227932203389</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -467,7 +1209,7 @@
         <v>469.83498305084697</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -490,7 +1232,7 @@
         <v>246.083389830508</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -513,7 +1255,7 @@
         <v>123.366915254237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -536,7 +1278,7 @@
         <v>122.282847457627</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -559,7 +1301,7 @@
         <v>123.07783050847399</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -582,7 +1324,7 @@
         <v>122.571932203389</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -605,7 +1347,7 @@
         <v>85.206482758620595</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -628,7 +1370,7 @@
         <v>85.206482758620595</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -651,7 +1393,7 @@
         <v>85.206482758620595</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -671,6 +1413,628 @@
         <v>19.982758620689602</v>
       </c>
       <c r="H13">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1080</v>
+      </c>
+      <c r="B18">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="C18">
+        <v>120.027583333333</v>
+      </c>
+      <c r="D18">
+        <v>149.988888888888</v>
+      </c>
+      <c r="F18">
+        <v>1080</v>
+      </c>
+      <c r="G18">
+        <v>109.83050847457601</v>
+      </c>
+      <c r="H18">
+        <v>28.932203389830502</v>
+      </c>
+      <c r="I18">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K18">
+        <v>1080</v>
+      </c>
+      <c r="L18">
+        <v>468.317288135593</v>
+      </c>
+      <c r="M18">
+        <v>123.366915254237</v>
+      </c>
+      <c r="N18">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1080</v>
+      </c>
+      <c r="B19">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="C19">
+        <v>127.963130434782</v>
+      </c>
+      <c r="D19">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="F19">
+        <v>1080</v>
+      </c>
+      <c r="G19">
+        <v>57.745762711864401</v>
+      </c>
+      <c r="H19">
+        <v>28.677966101694899</v>
+      </c>
+      <c r="I19">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K19">
+        <v>1080</v>
+      </c>
+      <c r="L19">
+        <v>246.227932203389</v>
+      </c>
+      <c r="M19">
+        <v>122.282847457627</v>
+      </c>
+      <c r="N19">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>720</v>
+      </c>
+      <c r="B20">
+        <v>68.371228915662599</v>
+      </c>
+      <c r="C20">
+        <v>119.45613636363601</v>
+      </c>
+      <c r="D20">
+        <v>152.130764705882</v>
+      </c>
+      <c r="F20">
+        <v>720</v>
+      </c>
+      <c r="G20">
+        <v>110.186440677966</v>
+      </c>
+      <c r="H20">
+        <v>28.864406779661</v>
+      </c>
+      <c r="I20">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K20">
+        <v>720</v>
+      </c>
+      <c r="L20">
+        <v>469.83498305084697</v>
+      </c>
+      <c r="M20">
+        <v>123.07783050847399</v>
+      </c>
+      <c r="N20">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>720</v>
+      </c>
+      <c r="B21">
+        <v>91.800146341463403</v>
+      </c>
+      <c r="C21">
+        <v>126.154368421052</v>
+      </c>
+      <c r="D21">
+        <v>155.1001</v>
+      </c>
+      <c r="F21">
+        <v>720</v>
+      </c>
+      <c r="G21">
+        <v>57.711864406779597</v>
+      </c>
+      <c r="H21">
+        <v>28.745762711864401</v>
+      </c>
+      <c r="I21">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K21">
+        <v>720</v>
+      </c>
+      <c r="L21">
+        <v>246.083389830508</v>
+      </c>
+      <c r="M21">
+        <v>122.571932203389</v>
+      </c>
+      <c r="N21">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M25" t="s">
+        <v>9</v>
+      </c>
+      <c r="N25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8.33</v>
+      </c>
+      <c r="B26">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="C26">
+        <v>120.027583333333</v>
+      </c>
+      <c r="D26">
+        <v>149.988888888888</v>
+      </c>
+      <c r="F26">
+        <v>8.33</v>
+      </c>
+      <c r="G26">
+        <v>109.83050847457601</v>
+      </c>
+      <c r="H26">
+        <v>28.932203389830502</v>
+      </c>
+      <c r="I26">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K26">
+        <v>8.33</v>
+      </c>
+      <c r="L26">
+        <v>109.83050847457601</v>
+      </c>
+      <c r="M26">
+        <v>28.932203389830502</v>
+      </c>
+      <c r="N26">
+        <v>19.982758620689602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>16.66</v>
+      </c>
+      <c r="B27">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="C27">
+        <v>127.963130434782</v>
+      </c>
+      <c r="D27">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="F27">
+        <v>16.66</v>
+      </c>
+      <c r="G27">
+        <v>57.745762711864401</v>
+      </c>
+      <c r="H27">
+        <v>28.677966101694899</v>
+      </c>
+      <c r="I27">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K27">
+        <v>16.66</v>
+      </c>
+      <c r="L27">
+        <v>57.745762711864401</v>
+      </c>
+      <c r="M27">
+        <v>28.677966101694899</v>
+      </c>
+      <c r="N27">
+        <v>19.982758620689602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8.33</v>
+      </c>
+      <c r="B28">
+        <v>68.371228915662599</v>
+      </c>
+      <c r="C28">
+        <v>119.45613636363601</v>
+      </c>
+      <c r="D28">
+        <v>152.130764705882</v>
+      </c>
+      <c r="F28">
+        <v>8.33</v>
+      </c>
+      <c r="G28">
+        <v>110.186440677966</v>
+      </c>
+      <c r="H28">
+        <v>28.864406779661</v>
+      </c>
+      <c r="I28">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K28">
+        <v>8.33</v>
+      </c>
+      <c r="L28">
+        <v>110.186440677966</v>
+      </c>
+      <c r="M28">
+        <v>28.864406779661</v>
+      </c>
+      <c r="N28">
+        <v>19.982758620689602</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>16.66</v>
+      </c>
+      <c r="B29">
+        <v>91.800146341463403</v>
+      </c>
+      <c r="C29">
+        <v>126.154368421052</v>
+      </c>
+      <c r="D29">
+        <v>155.1001</v>
+      </c>
+      <c r="F29">
+        <v>16.66</v>
+      </c>
+      <c r="G29">
+        <v>57.711864406779597</v>
+      </c>
+      <c r="H29">
+        <v>28.745762711864401</v>
+      </c>
+      <c r="I29">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K29">
+        <v>16.66</v>
+      </c>
+      <c r="L29">
+        <v>57.711864406779597</v>
+      </c>
+      <c r="M29">
+        <v>28.745762711864401</v>
+      </c>
+      <c r="N29">
+        <v>19.982758620689602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1080</v>
+      </c>
+      <c r="C32">
+        <v>720</v>
+      </c>
+      <c r="G32">
+        <v>1080</v>
+      </c>
+      <c r="H32">
+        <v>720</v>
+      </c>
+      <c r="L32">
+        <v>1080</v>
+      </c>
+      <c r="M32">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8.33</v>
+      </c>
+      <c r="B33">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="C33">
+        <v>67.770475000000005</v>
+      </c>
+      <c r="F33">
+        <v>8.33</v>
+      </c>
+      <c r="G33">
+        <v>109.83050847457601</v>
+      </c>
+      <c r="H33">
+        <v>110.186440677966</v>
+      </c>
+      <c r="K33">
+        <v>8.33</v>
+      </c>
+      <c r="L33">
+        <v>468.317288135593</v>
+      </c>
+      <c r="M33">
+        <v>469.83498305084697</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16.66</v>
+      </c>
+      <c r="B34">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="C34">
+        <v>93.222066666666606</v>
+      </c>
+      <c r="F34">
+        <v>16.66</v>
+      </c>
+      <c r="G34">
+        <v>57.745762711864401</v>
+      </c>
+      <c r="H34">
+        <v>57.711864406779597</v>
+      </c>
+      <c r="K34">
+        <v>16.66</v>
+      </c>
+      <c r="L34">
+        <v>246.227932203389</v>
+      </c>
+      <c r="M34">
+        <v>246.083389830508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8.33</v>
+      </c>
+      <c r="B35">
+        <v>120.027583333333</v>
+      </c>
+      <c r="C35">
+        <v>120.027583333333</v>
+      </c>
+      <c r="F35">
+        <v>8.33</v>
+      </c>
+      <c r="G35">
+        <v>28.932203389830502</v>
+      </c>
+      <c r="H35">
+        <v>28.864406779661</v>
+      </c>
+      <c r="K35">
+        <v>8.33</v>
+      </c>
+      <c r="L35">
+        <v>123.366915254237</v>
+      </c>
+      <c r="M35">
+        <v>123.07783050847399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16.66</v>
+      </c>
+      <c r="B36">
+        <v>127.963130434782</v>
+      </c>
+      <c r="C36">
+        <v>127.963130434782</v>
+      </c>
+      <c r="F36">
+        <v>16.66</v>
+      </c>
+      <c r="G36">
+        <v>28.677966101694899</v>
+      </c>
+      <c r="H36">
+        <v>28.745762711864401</v>
+      </c>
+      <c r="K36">
+        <v>16.66</v>
+      </c>
+      <c r="L36">
+        <v>122.282847457627</v>
+      </c>
+      <c r="M36">
+        <v>122.571932203389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8.33</v>
+      </c>
+      <c r="B37">
+        <v>149.988888888888</v>
+      </c>
+      <c r="C37">
+        <v>149.988888888888</v>
+      </c>
+      <c r="F37">
+        <v>8.33</v>
+      </c>
+      <c r="G37">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H37">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K37">
+        <v>8.33</v>
+      </c>
+      <c r="L37">
+        <v>85.206482758620595</v>
+      </c>
+      <c r="M37">
+        <v>85.206482758620595</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16.66</v>
+      </c>
+      <c r="B38">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="C38">
+        <v>161.73072727272699</v>
+      </c>
+      <c r="F38">
+        <v>16.66</v>
+      </c>
+      <c r="G38">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="H38">
+        <v>19.982758620689602</v>
+      </c>
+      <c r="K38">
+        <v>16.66</v>
+      </c>
+      <c r="L38">
+        <v>85.206482758620595</v>
+      </c>
+      <c r="M38">
         <v>85.206482758620595</v>
       </c>
     </row>
